--- a/data/trans_dic/P23_11_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_11_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o mucha menos ayuda de la que desea cuando está enfermo/a en la cama</t>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea cuando está enfermo/a en la cama (tasa de respuesta: 97,24%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>3,13%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>6,58%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,97%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>6,27%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,77%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,43%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>5,06%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>3,25%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2,84%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>5,87%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>4,86%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,26</t>
+          <t>0,0; 4,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,12</t>
+          <t>0,67; 6,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,71</t>
+          <t>0,0; 4,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,07; 16,27</t>
+          <t>0,95; 8,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,63; 8,16</t>
+          <t>2,07; 17,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>1,27; 18,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,82</t>
+          <t>0,7; 6,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 14,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,59</t>
+          <t>0,0; 3,85</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,54</t>
+          <t>0,6; 7,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,97</t>
+          <t>1,69; 13,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,74; 11,45</t>
+          <t>0,58; 9,74</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 3,98</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 3,0</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 3,01</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 5,69</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2,85; 12,7</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1,92; 11,92</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>1,73%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,85%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>6,28%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>3,52%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>5,06%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>7,57%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,36</t>
+          <t>0,0; 3,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,17</t>
+          <t>0,0; 2,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 16,03</t>
+          <t>1,43; 17,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,29</t>
+          <t>0,38; 5,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,88; 11,4</t>
+          <t>0,0; 5,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,7</t>
+          <t>4,15; 17,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,98; 11,13</t>
+          <t>2,9; 10,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 15,46</t>
+          <t>1,36; 6,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 5,95</t>
+          <t>3,93; 10,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,63</t>
+          <t>2,48; 10,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 11,9</t>
+          <t>4,39; 15,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 9,02</t>
+          <t>3,16; 12,31</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,58; 5,82</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 3,54</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3,35; 12,5</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1,73; 6,16</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>2,73; 8,86</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>4,85; 12,89</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>2,36%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>4,14%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,38%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>14,18%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6,45%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,38%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5,03%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>4,92%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
           <t>6,59%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>12,45%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 15,74</t>
+          <t>3,65; 17,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,68</t>
+          <t>1,12; 7,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,89</t>
+          <t>1,15; 4,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 7,58</t>
+          <t>1,03; 5,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,75</t>
+          <t>1,89; 7,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 8,86</t>
+          <t>5,99; 19,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 10,36</t>
+          <t>3,11; 8,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,44; 13,91</t>
+          <t>3,54; 8,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,11; 10,01</t>
+          <t>4,93; 10,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,5</t>
+          <t>4,49; 10,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 6,93</t>
+          <t>6,15; 13,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,64; 9,28</t>
+          <t>10,05; 19,6</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4,15; 11,21</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 6,29</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,45; 6,91</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>3,42; 7,38</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>4,52; 9,19</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>9,16; 17,22</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>10,09%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10,32%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8,21%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>11,11%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>13,7%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>8,31%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>7,94%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>8,12%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>8,14%</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>7,93%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>8,1%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
+      <c r="S10" s="2" t="inlineStr">
         <is>
           <t>10,98%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>11,34%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 12,39</t>
+          <t>2,35; 13,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 12,11</t>
+          <t>2,87; 12,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 10,93</t>
+          <t>2,97; 10,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,6; 18,73</t>
+          <t>4,06; 18,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,58; 14,9</t>
+          <t>6,43; 17,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 13,62</t>
+          <t>5,78; 13,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,42; 14,27</t>
+          <t>7,45; 15,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,5; 15,83</t>
+          <t>7,31; 13,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,83; 12,01</t>
+          <t>7,4; 13,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,01; 11,49</t>
+          <t>5,59; 11,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,82; 10,93</t>
+          <t>7,23; 15,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,9; 15,64</t>
+          <t>9,59; 18,77</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,9; 12,31</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>5,99; 11,26</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>6,05; 10,86</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>5,7; 12,93</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>8,02; 15,28</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>8,74; 14,43</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>7,37%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>11,57%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>6,78%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>6,31%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,45%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8,61%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>13,43%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>4,89%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>4,2%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>4,68%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>12,72%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>4,35%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>8,0%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>12,55%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>11,9%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,79</t>
+          <t>0,96; 5,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 5,01</t>
+          <t>0,86; 4,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 10,25</t>
+          <t>1,65; 11,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,77; 17,83</t>
+          <t>4,12; 14,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,75; 11,3</t>
+          <t>7,12; 17,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,34; 9,66</t>
+          <t>7,2; 16,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,96; 8,75</t>
+          <t>3,93; 11,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,03; 19,35</t>
+          <t>3,64; 10,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,89; 7,58</t>
+          <t>2,99; 9,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,24</t>
+          <t>5,19; 14,23</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,84; 7,67</t>
+          <t>9,07; 18,56</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,28; 16,35</t>
+          <t>8,63; 18,52</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 7,83</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>2,72; 6,45</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2,89; 7,92</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>5,27; 12,07</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>9,24; 16,42</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>9,0; 15,69</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>2,97%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4,96%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>5,86%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>8,11%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>5,01%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>3,59%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>3,21%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>8,41%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>5,46%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>3,66%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>7,36%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>6,19%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,7</t>
+          <t>0,55; 5,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 8,8</t>
+          <t>2,26; 9,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,66</t>
+          <t>0,0; 3,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,92; 12,42</t>
+          <t>0,71; 8,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,61; 12,36</t>
+          <t>2,74; 11,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,85</t>
+          <t>0,9; 7,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,58; 8,34</t>
+          <t>4,13; 15,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,19; 14,79</t>
+          <t>1,26; 5,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,97; 8,24</t>
+          <t>2,83; 8,37</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,01</t>
+          <t>2,68; 11,9</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,22</t>
+          <t>4,29; 14,78</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,32; 11,42</t>
+          <t>4,95; 14,39</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>3,26; 9,31</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>2,08; 5,91</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1,95; 5,51</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>2,4; 8,15</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>4,62; 11,44</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>3,54; 9,62</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>4,27%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>6,75%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>6,61%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>4,92%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6,45%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>9,38%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>5,07%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>4,0%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>4,79%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>10,07%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>5,22%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>4,04%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>8,07%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>9,26%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,56</t>
+          <t>2,24; 5,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,48</t>
+          <t>2,13; 4,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,55</t>
+          <t>2,29; 5,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,07; 8,74</t>
+          <t>3,01; 6,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,4; 8,32</t>
+          <t>5,06; 8,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,0; 5,98</t>
+          <t>6,61; 10,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,12; 7,43</t>
+          <t>5,54; 8,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,67; 11,41</t>
+          <t>3,97; 6,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,17; 6,31</t>
+          <t>5,17; 7,4</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,27; 4,77</t>
+          <t>5,14; 8,08</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,01; 5,87</t>
+          <t>7,57; 11,57</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,81; 9,82</t>
+          <t>8,29; 11,84</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>4,33; 6,59</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>3,37; 4,91</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>4,08; 6,05</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>4,44; 6,81</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>6,74; 9,52</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>7,86; 10,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea cuando está enfermo/a en la cama (tasa de respuesta: 97,24%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3936</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13111</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4339</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>14465</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2770</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2761</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12482</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7351</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12202</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1878</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1254</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>16419</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>13111</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>11690</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>26668</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>4015</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19282</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3452; 34430</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21617</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4403; 38605</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>872; 7268</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>558; 8098</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3158; 31398</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19513</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2864; 35692</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>626; 5070</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>224; 3756</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5923; 36862</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3363; 30660</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2665; 30442</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>9517; 53380</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>2258; 10050</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>1590; 9851</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3347</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3005</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>31357</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10251</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4291</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>28632</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15813</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>33172</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>27201</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4004</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2820</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>31979</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>18817</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>64529</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>37452</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>4850</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>7111</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 16985</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15484</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8278; 101345</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2152; 30892</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2724</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2034; 8689</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>14220; 49869</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6650; 31518</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20068; 52160</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>12402; 51611</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2058; 7452</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1418; 5529</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>16436; 60492</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>8855; 36459</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>36537; 136180</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>18382; 65502</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2616; 8502</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>4555; 12104</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>47488</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17922</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>16175</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15308</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2448</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6501</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>38230</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>40006</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>51569</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>50938</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4861</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>7633</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>85719</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>57928</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>67744</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>66246</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>7309</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>14134</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>23149; 112450</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7137; 44750</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7463; 31773</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6660; 33320</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1120; 4365</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3577; 11672</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21605; 62422</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>24236; 58686</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>34450; 73270</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>31470; 75565</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3190; 7169</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5407; 10549</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>55102; 148926</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>38017; 83080</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>46441; 93064</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>46064; 99394</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>5011; 10198</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>10407; 19556</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>31784</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>32866</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>34779</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>51296</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6053</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5151</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>70099</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>63707</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>65374</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>53416</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5590</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>6976</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>101884</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>96574</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>100153</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>104712</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>11643</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>12127</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13906; 80896</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>16771; 71247</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>17831; 64768</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>25801; 117463</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3583; 9800</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3242; 7633</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>47290; 95307</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>46173; 85830</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>46871; 87085</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>36361; 76121</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3641; 7890</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4883; 9557</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>72314; 150895</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>72829; 136940</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>74626; 133869</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>73288; 166324</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>8500; 16199</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>9346; 15436</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>13080</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10567</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>19062</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>34373</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4753</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4759</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>32236</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>28106</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>25901</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>41422</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6180</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>5757</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>45316</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>38673</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>44963</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>75794</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>10934</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>10516</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4293; 26084</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3820; 21930</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7572; 50699</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>19212; 66335</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2927; 7193</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3106; 7292</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>18503; 53351</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16218; 44609</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>14241; 45012</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>24953; 68403</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4177; 8545</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3904; 8380</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>27268; 71831</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>24197; 57398</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>27065; 74056</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>49875; 114324</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>8047; 14304</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>7951; 13864</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10701</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>19681</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>13944</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2612</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1232</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>51368</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>18059</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>30974</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>37864</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4730</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>4755</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>62069</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>37740</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>35596</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>51807</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>7342</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>5987</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2681; 26442</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>9604; 38830</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16248</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3501; 40901</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1139; 4931</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>360; 3183</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>26924; 98928</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>7640; 34568</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>17638; 52239</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>17349; 76927</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2504; 8618</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2803; 8144</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>37045; 105910</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>21452; 61053</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>20926; 59185</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>27430; 92965</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>4607; 11416</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>3422; 9306</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>110337</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>97152</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>110334</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>139637</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>19483</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>24694</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>233049</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>165691</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>214341</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>223043</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>27243</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>29196</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>343386</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>262843</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>324675</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>362680</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>46726</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>53890</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>71334; 181741</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>66987; 142017</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>74045; 176323</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>98386; 215610</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>14589; 25481</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>19295; 31725</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>188107; 288859</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>133498; 205728</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>178245; 255123</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>177589; 279277</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>21981; 33617</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>24054; 34346</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>284729; 433316</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>219665; 319861</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>273135; 404900</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>298226; 457767</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>39044; 55129</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>45771; 63439</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
